--- a/Excel_sheets/Testing.xlsx
+++ b/Excel_sheets/Testing.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="myData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,37 +20,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>Casual Leave</t>
-  </si>
-  <si>
-    <t>Earned Leave</t>
-  </si>
-  <si>
-    <t>Sick Leave</t>
-  </si>
-  <si>
-    <t>Comp Off Availed</t>
-  </si>
-  <si>
-    <t>Work From Home</t>
-  </si>
-  <si>
-    <t>Loss Of Pay</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Username3</t>
+  </si>
+  <si>
+    <t>Username4</t>
+  </si>
+  <si>
+    <t>Username5</t>
+  </si>
+  <si>
+    <t>Username6</t>
+  </si>
+  <si>
+    <t>Username7</t>
+  </si>
+  <si>
+    <t>Username8</t>
+  </si>
+  <si>
+    <t>Username9</t>
+  </si>
+  <si>
+    <t>Username10</t>
+  </si>
+  <si>
+    <t>Username11</t>
+  </si>
+  <si>
+    <t>Username12</t>
+  </si>
+  <si>
+    <t>Username13</t>
+  </si>
+  <si>
+    <t>Username14</t>
+  </si>
+  <si>
+    <t>Username15</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>Password5</t>
+  </si>
+  <si>
+    <t>Password6</t>
+  </si>
+  <si>
+    <t>Password7</t>
+  </si>
+  <si>
+    <t>Password8</t>
+  </si>
+  <si>
+    <t>Password9</t>
+  </si>
+  <si>
+    <t>Password10</t>
+  </si>
+  <si>
+    <t>Password11</t>
+  </si>
+  <si>
+    <t>Password12</t>
+  </si>
+  <si>
+    <t>Password13</t>
+  </si>
+  <si>
+    <t>Password14</t>
+  </si>
+  <si>
+    <t>Password15</t>
+  </si>
+  <si>
+    <t>shah4corp@kloudgin.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +136,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,16 +162,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -376,55 +454,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>